--- a/Homework assignment 1/data3.xlsx
+++ b/Homework assignment 1/data3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="544">
   <si>
     <t>ID</t>
   </si>
@@ -1654,6 +1656,9 @@
   </si>
   <si>
     <t>Ty Coon</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1707,18 +1712,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5670,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -5685,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6635,6 +6672,1964 @@
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>334906799</v>
+      </c>
+      <c r="B120" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="5">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="5">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="5">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="5">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="5">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="5">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="5">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="5">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="5">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="5">
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>474</v>

--- a/Homework assignment 1/data3.xlsx
+++ b/Homework assignment 1/data3.xlsx
@@ -7665,8 +7665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -7733,7 +7733,8 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
-        <v>7</v>
+        <f>A2+149</f>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -7741,7 +7742,8 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
-        <v>8</v>
+        <f>A3+149</f>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -7749,7 +7751,8 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
-        <v>9</v>
+        <f t="shared" ref="A10:A73" si="0">A4+149</f>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -7757,7 +7760,8 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
         <v>488</v>
@@ -7765,7 +7769,8 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -7773,7 +7778,8 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -7781,7 +7787,8 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>489</v>
@@ -7789,7 +7796,8 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -7797,7 +7805,8 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
         <v>490</v>
@@ -7805,7 +7814,8 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -7813,7 +7823,8 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
         <v>491</v>
@@ -7821,7 +7832,8 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -7829,7 +7841,8 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>448</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -7837,7 +7850,8 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>449</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -7845,7 +7859,8 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -7853,7 +7868,8 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>451</v>
       </c>
       <c r="B23" t="s">
         <v>492</v>
@@ -7861,7 +7877,8 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>452</v>
       </c>
       <c r="B24" t="s">
         <v>493</v>
@@ -7869,7 +7886,8 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>453</v>
       </c>
       <c r="B25" t="s">
         <v>94</v>
@@ -7877,7 +7895,8 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>597</v>
       </c>
       <c r="B26" t="s">
         <v>494</v>
@@ -7885,7 +7904,8 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>598</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
@@ -7893,7 +7913,8 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>599</v>
       </c>
       <c r="B28" t="s">
         <v>495</v>
@@ -7901,7 +7922,8 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
@@ -7909,7 +7931,8 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>601</v>
       </c>
       <c r="B30" t="s">
         <v>496</v>
@@ -7917,7 +7940,8 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>602</v>
       </c>
       <c r="B31" t="s">
         <v>118</v>
@@ -7925,7 +7949,8 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>746</v>
       </c>
       <c r="B32" t="s">
         <v>122</v>
@@ -7933,7 +7958,8 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>747</v>
       </c>
       <c r="B33" t="s">
         <v>126</v>
@@ -7941,7 +7967,8 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>748</v>
       </c>
       <c r="B34" t="s">
         <v>497</v>
@@ -7949,7 +7976,8 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>749</v>
       </c>
       <c r="B35" t="s">
         <v>134</v>
@@ -7957,7 +7985,8 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>750</v>
       </c>
       <c r="B36" t="s">
         <v>498</v>
@@ -7965,7 +7994,8 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>751</v>
       </c>
       <c r="B37" t="s">
         <v>499</v>
@@ -7973,7 +8003,8 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>895</v>
       </c>
       <c r="B38" t="s">
         <v>500</v>
@@ -7981,7 +8012,8 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>896</v>
       </c>
       <c r="B39" t="s">
         <v>501</v>
@@ -7989,7 +8021,8 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>897</v>
       </c>
       <c r="B40" t="s">
         <v>154</v>
@@ -7997,7 +8030,8 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>898</v>
       </c>
       <c r="B41" t="s">
         <v>158</v>
@@ -8005,7 +8039,8 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>899</v>
       </c>
       <c r="B42" t="s">
         <v>502</v>
@@ -8013,7 +8048,8 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>900</v>
       </c>
       <c r="B43" t="s">
         <v>503</v>
@@ -8021,7 +8057,8 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>1044</v>
       </c>
       <c r="B44" t="s">
         <v>504</v>
@@ -8029,7 +8066,8 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>1045</v>
       </c>
       <c r="B45" t="s">
         <v>505</v>
@@ -8037,7 +8075,8 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>1046</v>
       </c>
       <c r="B46" t="s">
         <v>506</v>
@@ -8045,7 +8084,8 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>1047</v>
       </c>
       <c r="B47" t="s">
         <v>182</v>
@@ -8053,7 +8093,8 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>1048</v>
       </c>
       <c r="B48" t="s">
         <v>186</v>
@@ -8061,7 +8102,8 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>1049</v>
       </c>
       <c r="B49" t="s">
         <v>507</v>
@@ -8069,7 +8111,8 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>1193</v>
       </c>
       <c r="B50" t="s">
         <v>508</v>
@@ -8077,7 +8120,8 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>1194</v>
       </c>
       <c r="B51" t="s">
         <v>509</v>
@@ -8085,7 +8129,8 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>1195</v>
       </c>
       <c r="B52" t="s">
         <v>202</v>
@@ -8093,7 +8138,8 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>1196</v>
       </c>
       <c r="B53" t="s">
         <v>510</v>
@@ -8101,7 +8147,8 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>1197</v>
       </c>
       <c r="B54" t="s">
         <v>210</v>
@@ -8109,7 +8156,8 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>1198</v>
       </c>
       <c r="B55" t="s">
         <v>511</v>
@@ -8117,7 +8165,8 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>1342</v>
       </c>
       <c r="B56" t="s">
         <v>218</v>
@@ -8125,7 +8174,8 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>1343</v>
       </c>
       <c r="B57" t="s">
         <v>512</v>
@@ -8133,7 +8183,8 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>1344</v>
       </c>
       <c r="B58" t="s">
         <v>513</v>
@@ -8141,7 +8192,8 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>1345</v>
       </c>
       <c r="B59" t="s">
         <v>514</v>
@@ -8149,7 +8201,8 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>1346</v>
       </c>
       <c r="B60" t="s">
         <v>234</v>
@@ -8157,7 +8210,8 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>1347</v>
       </c>
       <c r="B61" t="s">
         <v>515</v>
@@ -8165,7 +8219,8 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>1491</v>
       </c>
       <c r="B62" t="s">
         <v>242</v>
@@ -8173,7 +8228,8 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>1492</v>
       </c>
       <c r="B63" t="s">
         <v>516</v>
@@ -8181,7 +8237,8 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>1493</v>
       </c>
       <c r="B64" t="s">
         <v>250</v>
@@ -8189,7 +8246,8 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>1494</v>
       </c>
       <c r="B65" t="s">
         <v>517</v>
@@ -8197,7 +8255,8 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>1495</v>
       </c>
       <c r="B66" t="s">
         <v>518</v>
@@ -8205,7 +8264,8 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>1496</v>
       </c>
       <c r="B67" t="s">
         <v>519</v>
@@ -8213,7 +8273,8 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>1640</v>
       </c>
       <c r="B68" t="s">
         <v>520</v>
@@ -8221,7 +8282,8 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>1641</v>
       </c>
       <c r="B69" t="s">
         <v>270</v>
@@ -8229,7 +8291,8 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <v>69</v>
+        <f t="shared" si="0"/>
+        <v>1642</v>
       </c>
       <c r="B70" t="s">
         <v>274</v>
@@ -8237,7 +8300,8 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>1643</v>
       </c>
       <c r="B71" t="s">
         <v>521</v>
@@ -8245,7 +8309,8 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>1644</v>
       </c>
       <c r="B72" t="s">
         <v>522</v>
@@ -8253,7 +8318,8 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>1645</v>
       </c>
       <c r="B73" t="s">
         <v>523</v>
@@ -8261,7 +8327,8 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
-        <v>73</v>
+        <f t="shared" ref="A74:A120" si="1">A68+149</f>
+        <v>1789</v>
       </c>
       <c r="B74" t="s">
         <v>290</v>
@@ -8269,7 +8336,8 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>1790</v>
       </c>
       <c r="B75" t="s">
         <v>524</v>
@@ -8277,7 +8345,8 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>1791</v>
       </c>
       <c r="B76" t="s">
         <v>298</v>
@@ -8285,7 +8354,8 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>1792</v>
       </c>
       <c r="B77" t="s">
         <v>302</v>
@@ -8293,7 +8363,8 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
-        <v>77</v>
+        <f t="shared" si="1"/>
+        <v>1793</v>
       </c>
       <c r="B78" t="s">
         <v>306</v>
@@ -8301,7 +8372,8 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>1794</v>
       </c>
       <c r="B79" t="s">
         <v>310</v>
@@ -8309,7 +8381,8 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>1938</v>
       </c>
       <c r="B80" t="s">
         <v>314</v>
@@ -8317,7 +8390,8 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>1939</v>
       </c>
       <c r="B81" t="s">
         <v>318</v>
@@ -8325,7 +8399,8 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>1940</v>
       </c>
       <c r="B82" t="s">
         <v>322</v>
@@ -8333,7 +8408,8 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>1941</v>
       </c>
       <c r="B83" t="s">
         <v>525</v>
@@ -8341,7 +8417,8 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>1942</v>
       </c>
       <c r="B84" t="s">
         <v>330</v>
@@ -8349,7 +8426,8 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>1943</v>
       </c>
       <c r="B85" t="s">
         <v>334</v>
@@ -8357,7 +8435,8 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>2087</v>
       </c>
       <c r="B86" t="s">
         <v>526</v>
@@ -8365,7 +8444,8 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>2088</v>
       </c>
       <c r="B87" t="s">
         <v>342</v>
@@ -8373,7 +8453,8 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>2089</v>
       </c>
       <c r="B88" t="s">
         <v>527</v>
@@ -8381,7 +8462,8 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>2090</v>
       </c>
       <c r="B89" t="s">
         <v>350</v>
@@ -8389,7 +8471,8 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
-        <v>89</v>
+        <f t="shared" si="1"/>
+        <v>2091</v>
       </c>
       <c r="B90" t="s">
         <v>354</v>
@@ -8397,7 +8480,8 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>2092</v>
       </c>
       <c r="B91" t="s">
         <v>358</v>
@@ -8405,7 +8489,8 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
-        <v>91</v>
+        <f t="shared" si="1"/>
+        <v>2236</v>
       </c>
       <c r="B92" t="s">
         <v>528</v>
@@ -8413,7 +8498,8 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>2237</v>
       </c>
       <c r="B93" t="s">
         <v>366</v>
@@ -8421,7 +8507,8 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>2238</v>
       </c>
       <c r="B94" t="s">
         <v>529</v>
@@ -8429,7 +8516,8 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
-        <v>94</v>
+        <f t="shared" si="1"/>
+        <v>2239</v>
       </c>
       <c r="B95" t="s">
         <v>530</v>
@@ -8437,7 +8525,8 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>2240</v>
       </c>
       <c r="B96" t="s">
         <v>378</v>
@@ -8445,7 +8534,8 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>2241</v>
       </c>
       <c r="B97" t="s">
         <v>531</v>
@@ -8453,7 +8543,8 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>2385</v>
       </c>
       <c r="B98" t="s">
         <v>386</v>
@@ -8461,7 +8552,8 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
-        <v>98</v>
+        <f t="shared" si="1"/>
+        <v>2386</v>
       </c>
       <c r="B99" t="s">
         <v>532</v>
@@ -8469,7 +8561,8 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>2387</v>
       </c>
       <c r="B100" t="s">
         <v>394</v>
@@ -8477,7 +8570,8 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>2388</v>
       </c>
       <c r="B101" t="s">
         <v>533</v>
@@ -8485,7 +8579,8 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
-        <v>101</v>
+        <f t="shared" si="1"/>
+        <v>2389</v>
       </c>
       <c r="B102" t="s">
         <v>534</v>
@@ -8493,7 +8588,8 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
-        <v>102</v>
+        <f t="shared" si="1"/>
+        <v>2390</v>
       </c>
       <c r="B103" t="s">
         <v>535</v>
@@ -8501,7 +8597,8 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
-        <v>103</v>
+        <f t="shared" si="1"/>
+        <v>2534</v>
       </c>
       <c r="B104" t="s">
         <v>410</v>
@@ -8509,7 +8606,8 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>2535</v>
       </c>
       <c r="B105" t="s">
         <v>414</v>
@@ -8517,7 +8615,8 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>2536</v>
       </c>
       <c r="B106" t="s">
         <v>536</v>
@@ -8525,7 +8624,8 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>2537</v>
       </c>
       <c r="B107" t="s">
         <v>537</v>
@@ -8533,7 +8633,8 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>2538</v>
       </c>
       <c r="B108" t="s">
         <v>538</v>
@@ -8541,7 +8642,8 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
-        <v>108</v>
+        <f t="shared" si="1"/>
+        <v>2539</v>
       </c>
       <c r="B109" t="s">
         <v>430</v>
@@ -8549,7 +8651,8 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
-        <v>109</v>
+        <f t="shared" si="1"/>
+        <v>2683</v>
       </c>
       <c r="B110" t="s">
         <v>434</v>
@@ -8557,7 +8660,8 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
-        <v>110</v>
+        <f t="shared" si="1"/>
+        <v>2684</v>
       </c>
       <c r="B111" t="s">
         <v>539</v>
@@ -8565,7 +8669,8 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
-        <v>111</v>
+        <f t="shared" si="1"/>
+        <v>2685</v>
       </c>
       <c r="B112" t="s">
         <v>540</v>
@@ -8573,7 +8678,8 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
-        <v>112</v>
+        <f t="shared" si="1"/>
+        <v>2686</v>
       </c>
       <c r="B113" t="s">
         <v>446</v>
@@ -8581,7 +8687,8 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
-        <v>113</v>
+        <f t="shared" si="1"/>
+        <v>2687</v>
       </c>
       <c r="B114" t="s">
         <v>450</v>
@@ -8589,7 +8696,8 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
-        <v>114</v>
+        <f t="shared" si="1"/>
+        <v>2688</v>
       </c>
       <c r="B115" t="s">
         <v>541</v>
@@ -8597,7 +8705,8 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>2832</v>
       </c>
       <c r="B116" t="s">
         <v>458</v>
@@ -8605,7 +8714,8 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
-        <v>116</v>
+        <f t="shared" si="1"/>
+        <v>2833</v>
       </c>
       <c r="B117" t="s">
         <v>462</v>
@@ -8613,7 +8723,8 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>2834</v>
       </c>
       <c r="B118" t="s">
         <v>542</v>
@@ -8621,7 +8732,8 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
-        <v>118</v>
+        <f t="shared" si="1"/>
+        <v>2835</v>
       </c>
       <c r="B119" t="s">
         <v>470</v>
@@ -8629,7 +8741,8 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
-        <v>119</v>
+        <f t="shared" si="1"/>
+        <v>2836</v>
       </c>
       <c r="B120" t="s">
         <v>474</v>
